--- a/src/sastadev/data/top3000/Woordenlijsten Current.xlsx
+++ b/src/sastadev/data/top3000/Woordenlijsten Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\top3000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D88A4-9BD0-4C78-A32A-0A6D434B0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C999372-626A-45BA-8828-60078EC1FE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70CE039A-4A00-4A81-88A5-4FE1102D9526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18215" uniqueCount="4038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18224" uniqueCount="4040">
   <si>
     <t>aai</t>
   </si>
@@ -12243,6 +12243,12 @@
   </si>
   <si>
     <t>in slaap</t>
+  </si>
+  <si>
+    <t>spoeden</t>
+  </si>
+  <si>
+    <t>haasten</t>
   </si>
 </sst>
 </file>
@@ -12674,13 +12680,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED8EF28-0107-4559-B6C2-41479884DE88}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M3100"/>
+  <dimension ref="A1:M3101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G996" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G1276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I898" sqref="I898"/>
+      <selection pane="bottomRight" activeCell="N3101" sqref="N3101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -39472,7 +39478,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="996" spans="1:13">
+    <row r="996" spans="1:13" hidden="1">
       <c r="A996" s="2" t="s">
         <v>951</v>
       </c>
@@ -39498,7 +39504,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="997" spans="1:13">
+    <row r="997" spans="1:13" hidden="1">
       <c r="A997" s="2" t="s">
         <v>952</v>
       </c>
@@ -39524,7 +39530,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="998" spans="1:13">
+    <row r="998" spans="1:13" hidden="1">
       <c r="A998" s="2" t="s">
         <v>953</v>
       </c>
@@ -39552,7 +39558,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="999" spans="1:13">
+    <row r="999" spans="1:13" hidden="1">
       <c r="A999" s="2" t="s">
         <v>954</v>
       </c>
@@ -39578,7 +39584,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1000" spans="1:13">
+    <row r="1000" spans="1:13" hidden="1">
       <c r="A1000" s="2" t="s">
         <v>955</v>
       </c>
@@ -39604,7 +39610,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1001" spans="1:13">
+    <row r="1001" spans="1:13" hidden="1">
       <c r="A1001" s="2" t="s">
         <v>956</v>
       </c>
@@ -39630,7 +39636,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1002" spans="1:13">
+    <row r="1002" spans="1:13" hidden="1">
       <c r="A1002" s="2" t="s">
         <v>957</v>
       </c>
@@ -39756,7 +39762,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1007" spans="1:13">
+    <row r="1007" spans="1:13" hidden="1">
       <c r="A1007" s="2" t="s">
         <v>962</v>
       </c>
@@ -39807,7 +39813,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1009" spans="1:13">
+    <row r="1009" spans="1:13" hidden="1">
       <c r="A1009" s="2" t="s">
         <v>964</v>
       </c>
@@ -39880,7 +39886,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1012" spans="1:13">
+    <row r="1012" spans="1:13" hidden="1">
       <c r="A1012" s="2" t="s">
         <v>967</v>
       </c>
@@ -44369,7 +44375,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1187" spans="1:13">
+    <row r="1187" spans="1:13" hidden="1">
       <c r="A1187" s="2" t="s">
         <v>1137</v>
       </c>
@@ -44420,7 +44426,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1189" spans="1:13">
+    <row r="1189" spans="1:13" hidden="1">
       <c r="A1189" s="2" t="s">
         <v>1139</v>
       </c>
@@ -44446,7 +44452,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1190" spans="1:13">
+    <row r="1190" spans="1:13" hidden="1">
       <c r="A1190" s="2" t="s">
         <v>1140</v>
       </c>
@@ -44743,7 +44749,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1201" spans="1:13">
+    <row r="1201" spans="1:13" hidden="1">
       <c r="A1201" s="2" t="s">
         <v>1151</v>
       </c>
@@ -44773,7 +44779,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1202" spans="1:13">
+    <row r="1202" spans="1:13" hidden="1">
       <c r="A1202" s="2" t="s">
         <v>1152</v>
       </c>
@@ -45041,7 +45047,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1212" spans="1:13">
+    <row r="1212" spans="1:13" hidden="1">
       <c r="A1212" s="2" t="s">
         <v>1162</v>
       </c>
@@ -45145,7 +45151,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1216" spans="1:13">
+    <row r="1216" spans="1:13" hidden="1">
       <c r="A1216" s="2" t="s">
         <v>1166</v>
       </c>
@@ -45606,7 +45612,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1233" spans="1:13">
+    <row r="1233" spans="1:13" hidden="1">
       <c r="A1233" s="2" t="s">
         <v>1182</v>
       </c>
@@ -45703,7 +45709,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1237" spans="1:13">
+    <row r="1237" spans="1:13" hidden="1">
       <c r="A1237" s="2" t="s">
         <v>1186</v>
       </c>
@@ -45858,7 +45864,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1243" spans="1:13">
+    <row r="1243" spans="1:13" hidden="1">
       <c r="A1243" s="2" t="s">
         <v>1192</v>
       </c>
@@ -45988,7 +45994,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1248" spans="1:13">
+    <row r="1248" spans="1:13" hidden="1">
       <c r="A1248" s="2" t="s">
         <v>1197</v>
       </c>
@@ -46199,7 +46205,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1256" spans="1:13">
+    <row r="1256" spans="1:13" hidden="1">
       <c r="A1256" s="2" t="s">
         <v>1205</v>
       </c>
@@ -46225,7 +46231,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1257" spans="1:13">
+    <row r="1257" spans="1:13" hidden="1">
       <c r="A1257" s="2" t="s">
         <v>1206</v>
       </c>
@@ -46628,7 +46634,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1273" spans="1:13">
+    <row r="1273" spans="1:13" hidden="1">
       <c r="A1273" s="2" t="s">
         <v>1222</v>
       </c>
@@ -46900,7 +46906,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1283" spans="1:13">
+    <row r="1283" spans="1:13" hidden="1">
       <c r="A1283" s="2" t="s">
         <v>1231</v>
       </c>
@@ -46980,7 +46986,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1286" spans="1:13">
+    <row r="1286" spans="1:13" hidden="1">
       <c r="A1286" s="2" t="s">
         <v>1234</v>
       </c>
@@ -47111,7 +47117,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1291" spans="1:13">
+    <row r="1291" spans="1:13" hidden="1">
       <c r="A1291" s="2" t="s">
         <v>1238</v>
       </c>
@@ -47850,7 +47856,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1319" spans="1:13">
+    <row r="1319" spans="1:13" hidden="1">
       <c r="A1319" s="2" t="s">
         <v>1265</v>
       </c>
@@ -47930,7 +47936,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1322" spans="1:13">
+    <row r="1322" spans="1:13" hidden="1">
       <c r="A1322" s="2" t="s">
         <v>1268</v>
       </c>
@@ -48039,7 +48045,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1326" spans="1:13">
+    <row r="1326" spans="1:13" hidden="1">
       <c r="A1326" s="2" t="s">
         <v>1272</v>
       </c>
@@ -48181,7 +48187,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1331" spans="1:13">
+    <row r="1331" spans="1:13" hidden="1">
       <c r="A1331" s="2" t="s">
         <v>1277</v>
       </c>
@@ -48263,7 +48269,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1334" spans="1:13">
+    <row r="1334" spans="1:13" hidden="1">
       <c r="A1334" s="2" t="s">
         <v>1280</v>
       </c>
@@ -48315,7 +48321,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1336" spans="1:13">
+    <row r="1336" spans="1:13" hidden="1">
       <c r="A1336" s="2" t="s">
         <v>1282</v>
       </c>
@@ -48396,7 +48402,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1339" spans="1:13">
+    <row r="1339" spans="1:13" hidden="1">
       <c r="A1339" s="2" t="s">
         <v>1285</v>
       </c>
@@ -48447,7 +48453,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1341" spans="1:13">
+    <row r="1341" spans="1:13" hidden="1">
       <c r="A1341" s="2" t="s">
         <v>1287</v>
       </c>
@@ -48767,7 +48773,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1353" spans="1:13">
+    <row r="1353" spans="1:13" hidden="1">
       <c r="A1353" s="2" t="s">
         <v>1299</v>
       </c>
@@ -49011,7 +49017,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1363" spans="1:13">
+    <row r="1363" spans="1:13" hidden="1">
       <c r="A1363" s="2" t="s">
         <v>1309</v>
       </c>
@@ -49274,7 +49280,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1373" spans="1:13">
+    <row r="1373" spans="1:13" hidden="1">
       <c r="A1373" s="2" t="s">
         <v>1318</v>
       </c>
@@ -49464,7 +49470,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1380" spans="1:13">
+    <row r="1380" spans="1:13" hidden="1">
       <c r="A1380" s="2" t="s">
         <v>1325</v>
       </c>
@@ -49488,7 +49494,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1381" spans="1:13">
+    <row r="1381" spans="1:13" hidden="1">
       <c r="A1381" s="2" t="s">
         <v>1326</v>
       </c>
@@ -49514,7 +49520,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1382" spans="1:13">
+    <row r="1382" spans="1:13" hidden="1">
       <c r="A1382" s="2" t="s">
         <v>1327</v>
       </c>
@@ -49839,7 +49845,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1395" spans="1:13">
+    <row r="1395" spans="1:13" hidden="1">
       <c r="A1395" s="2" t="s">
         <v>1340</v>
       </c>
@@ -50150,7 +50156,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1408" spans="1:13">
+    <row r="1408" spans="1:13" hidden="1">
       <c r="A1408" s="2" t="s">
         <v>1352</v>
       </c>
@@ -50798,7 +50804,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1433" spans="1:13">
+    <row r="1433" spans="1:13" hidden="1">
       <c r="A1433" s="2" t="s">
         <v>1375</v>
       </c>
@@ -50824,7 +50830,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1434" spans="1:13">
+    <row r="1434" spans="1:13" hidden="1">
       <c r="A1434" s="2" t="s">
         <v>1376</v>
       </c>
@@ -50876,7 +50882,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1436" spans="1:13">
+    <row r="1436" spans="1:13" hidden="1">
       <c r="A1436" s="2" t="s">
         <v>1378</v>
       </c>
@@ -50902,7 +50908,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1437" spans="1:13">
+    <row r="1437" spans="1:13" hidden="1">
       <c r="A1437" s="2" t="s">
         <v>1379</v>
       </c>
@@ -50928,7 +50934,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1438" spans="1:13">
+    <row r="1438" spans="1:13" hidden="1">
       <c r="A1438" s="2" t="s">
         <v>1380</v>
       </c>
@@ -51040,7 +51046,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1442" spans="1:13">
+    <row r="1442" spans="1:13" hidden="1">
       <c r="A1442" s="2" t="s">
         <v>1384</v>
       </c>
@@ -51375,7 +51381,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1454" spans="1:13">
+    <row r="1454" spans="1:13" hidden="1">
       <c r="A1454" s="2" t="s">
         <v>1396</v>
       </c>
@@ -51458,7 +51464,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1457" spans="1:13">
+    <row r="1457" spans="1:13" hidden="1">
       <c r="A1457" s="2" t="s">
         <v>1399</v>
       </c>
@@ -51649,7 +51655,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1464" spans="1:13">
+    <row r="1464" spans="1:13" hidden="1">
       <c r="A1464" s="2" t="s">
         <v>1405</v>
       </c>
@@ -51724,7 +51730,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1467" spans="1:13">
+    <row r="1467" spans="1:13" hidden="1">
       <c r="A1467" s="2" t="s">
         <v>1408</v>
       </c>
@@ -52089,7 +52095,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1481" spans="1:13">
+    <row r="1481" spans="1:13" hidden="1">
       <c r="A1481" s="2" t="s">
         <v>1422</v>
       </c>
@@ -52472,7 +52478,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1495" spans="1:13">
+    <row r="1495" spans="1:13" hidden="1">
       <c r="A1495" s="2" t="s">
         <v>1434</v>
       </c>
@@ -52717,7 +52723,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1504" spans="1:13">
+    <row r="1504" spans="1:13" hidden="1">
       <c r="A1504" s="2" t="s">
         <v>1442</v>
       </c>
@@ -53156,7 +53162,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1521" spans="1:13">
+    <row r="1521" spans="1:13" hidden="1">
       <c r="A1521" s="2" t="s">
         <v>1458</v>
       </c>
@@ -53250,7 +53256,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1525" spans="1:13">
+    <row r="1525" spans="1:13" hidden="1">
       <c r="A1525" s="2" t="s">
         <v>1462</v>
       </c>
@@ -53482,7 +53488,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1534" spans="1:13">
+    <row r="1534" spans="1:13" hidden="1">
       <c r="A1534" s="2" t="s">
         <v>1470</v>
       </c>
@@ -53509,7 +53515,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1535" spans="1:13">
+    <row r="1535" spans="1:13" hidden="1">
       <c r="A1535" s="2" t="s">
         <v>1471</v>
       </c>
@@ -53615,7 +53621,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1539" spans="1:13">
+    <row r="1539" spans="1:13" hidden="1">
       <c r="A1539" s="2" t="s">
         <v>1475</v>
       </c>
@@ -53642,7 +53648,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1540" spans="1:13">
+    <row r="1540" spans="1:13" hidden="1">
       <c r="A1540" s="2" t="s">
         <v>1476</v>
       </c>
@@ -53725,7 +53731,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1543" spans="1:13">
+    <row r="1543" spans="1:13" hidden="1">
       <c r="A1543" s="2" t="s">
         <v>1479</v>
       </c>
@@ -53825,7 +53831,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1547" spans="1:13">
+    <row r="1547" spans="1:13" hidden="1">
       <c r="A1547" s="2" t="s">
         <v>1483</v>
       </c>
@@ -53878,7 +53884,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1549" spans="1:13">
+    <row r="1549" spans="1:13" hidden="1">
       <c r="A1549" s="2" t="s">
         <v>1485</v>
       </c>
@@ -53905,7 +53911,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1550" spans="1:13">
+    <row r="1550" spans="1:13" hidden="1">
       <c r="A1550" s="2" t="s">
         <v>1486</v>
       </c>
@@ -53932,7 +53938,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1551" spans="1:13">
+    <row r="1551" spans="1:13" hidden="1">
       <c r="A1551" s="2" t="s">
         <v>1487</v>
       </c>
@@ -53962,7 +53968,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1552" spans="1:13">
+    <row r="1552" spans="1:13" hidden="1">
       <c r="A1552" s="2" t="s">
         <v>1488</v>
       </c>
@@ -54570,7 +54576,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1575" spans="1:13">
+    <row r="1575" spans="1:13" hidden="1">
       <c r="A1575" s="2" t="s">
         <v>1511</v>
       </c>
@@ -54692,7 +54698,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1580" spans="1:13">
+    <row r="1580" spans="1:13" hidden="1">
       <c r="A1580" s="2" t="s">
         <v>1516</v>
       </c>
@@ -55048,7 +55054,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1594" spans="1:13">
+    <row r="1594" spans="1:13" hidden="1">
       <c r="A1594" s="2" t="s">
         <v>1529</v>
       </c>
@@ -55440,7 +55446,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1610" spans="1:13">
+    <row r="1610" spans="1:13" hidden="1">
       <c r="A1610" s="2" t="s">
         <v>1545</v>
       </c>
@@ -55494,7 +55500,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1612" spans="1:13">
+    <row r="1612" spans="1:13" hidden="1">
       <c r="A1612" s="2" t="s">
         <v>1547</v>
       </c>
@@ -55566,7 +55572,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1615" spans="1:13">
+    <row r="1615" spans="1:13" hidden="1">
       <c r="A1615" s="2" t="s">
         <v>1550</v>
       </c>
@@ -55592,7 +55598,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1616" spans="1:13">
+    <row r="1616" spans="1:13" hidden="1">
       <c r="A1616" s="2" t="s">
         <v>1551</v>
       </c>
@@ -55673,7 +55679,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1619" spans="1:13">
+    <row r="1619" spans="1:13" hidden="1">
       <c r="A1619" s="2" t="s">
         <v>1554</v>
       </c>
@@ -55699,7 +55705,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1620" spans="1:13">
+    <row r="1620" spans="1:13" hidden="1">
       <c r="A1620" s="2" t="s">
         <v>1555</v>
       </c>
@@ -55725,7 +55731,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1621" spans="1:13">
+    <row r="1621" spans="1:13" hidden="1">
       <c r="A1621" s="2" t="s">
         <v>1556</v>
       </c>
@@ -55751,7 +55757,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1622" spans="1:13">
+    <row r="1622" spans="1:13" hidden="1">
       <c r="A1622" s="2" t="s">
         <v>1557</v>
       </c>
@@ -55777,7 +55783,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1623" spans="1:13">
+    <row r="1623" spans="1:13" hidden="1">
       <c r="A1623" s="2" t="s">
         <v>1558</v>
       </c>
@@ -55828,7 +55834,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1625" spans="1:13">
+    <row r="1625" spans="1:13" hidden="1">
       <c r="A1625" s="2" t="s">
         <v>1560</v>
       </c>
@@ -55854,7 +55860,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1626" spans="1:13">
+    <row r="1626" spans="1:13" hidden="1">
       <c r="A1626" s="2" t="s">
         <v>1561</v>
       </c>
@@ -55933,7 +55939,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1629" spans="1:13">
+    <row r="1629" spans="1:13" hidden="1">
       <c r="A1629" s="2" t="s">
         <v>1564</v>
       </c>
@@ -56490,7 +56496,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1650" spans="1:13">
+    <row r="1650" spans="1:13" hidden="1">
       <c r="A1650" s="2" t="s">
         <v>1584</v>
       </c>
@@ -56516,7 +56522,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1651" spans="1:13">
+    <row r="1651" spans="1:13" hidden="1">
       <c r="A1651" s="2" t="s">
         <v>1585</v>
       </c>
@@ -56615,7 +56621,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1655" spans="1:13">
+    <row r="1655" spans="1:13" hidden="1">
       <c r="A1655" s="2" t="s">
         <v>1589</v>
       </c>
@@ -56992,7 +56998,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1670" spans="1:13">
+    <row r="1670" spans="1:13" hidden="1">
       <c r="A1670" s="2" t="s">
         <v>1603</v>
       </c>
@@ -57065,7 +57071,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1673" spans="1:13">
+    <row r="1673" spans="1:13" hidden="1">
       <c r="A1673" s="2" t="s">
         <v>1606</v>
       </c>
@@ -57092,7 +57098,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1674" spans="1:13">
+    <row r="1674" spans="1:13" hidden="1">
       <c r="A1674" s="2" t="s">
         <v>1607</v>
       </c>
@@ -57115,7 +57121,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1675" spans="1:13">
+    <row r="1675" spans="1:13" hidden="1">
       <c r="A1675" s="2" t="s">
         <v>1608</v>
       </c>
@@ -57370,7 +57376,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1685" spans="1:13">
+    <row r="1685" spans="1:13" hidden="1">
       <c r="A1685" s="2" t="s">
         <v>1618</v>
       </c>
@@ -57397,7 +57403,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1686" spans="1:13">
+    <row r="1686" spans="1:13" hidden="1">
       <c r="A1686" s="2" t="s">
         <v>1619</v>
       </c>
@@ -57425,7 +57431,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1687" spans="1:13">
+    <row r="1687" spans="1:13" hidden="1">
       <c r="A1687" s="2" t="s">
         <v>1620</v>
       </c>
@@ -57479,7 +57485,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1689" spans="1:13">
+    <row r="1689" spans="1:13" hidden="1">
       <c r="A1689" s="2" t="s">
         <v>1622</v>
       </c>
@@ -57586,7 +57592,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1693" spans="1:13">
+    <row r="1693" spans="1:13" hidden="1">
       <c r="A1693" s="2" t="s">
         <v>1626</v>
       </c>
@@ -57612,7 +57618,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1694" spans="1:13">
+    <row r="1694" spans="1:13" hidden="1">
       <c r="A1694" s="2" t="s">
         <v>1627</v>
       </c>
@@ -57661,7 +57667,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1696" spans="1:13">
+    <row r="1696" spans="1:13" hidden="1">
       <c r="A1696" s="2" t="s">
         <v>1629</v>
       </c>
@@ -57713,7 +57719,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1698" spans="1:13">
+    <row r="1698" spans="1:13" hidden="1">
       <c r="A1698" s="2" t="s">
         <v>1631</v>
       </c>
@@ -57767,7 +57773,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1700" spans="1:13">
+    <row r="1700" spans="1:13" hidden="1">
       <c r="A1700" s="2" t="s">
         <v>1633</v>
       </c>
@@ -57821,7 +57827,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1702" spans="1:13">
+    <row r="1702" spans="1:13" hidden="1">
       <c r="A1702" s="2" t="s">
         <v>1635</v>
       </c>
@@ -57849,7 +57855,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1703" spans="1:13">
+    <row r="1703" spans="1:13" hidden="1">
       <c r="A1703" s="2" t="s">
         <v>1636</v>
       </c>
@@ -57877,7 +57883,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1704" spans="1:13">
+    <row r="1704" spans="1:13" hidden="1">
       <c r="A1704" s="2" t="s">
         <v>1637</v>
       </c>
@@ -57934,7 +57940,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1706" spans="1:13">
+    <row r="1706" spans="1:13" hidden="1">
       <c r="A1706" s="2" t="s">
         <v>1639</v>
       </c>
@@ -57960,7 +57966,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1707" spans="1:13">
+    <row r="1707" spans="1:13" hidden="1">
       <c r="A1707" s="2" t="s">
         <v>1640</v>
       </c>
@@ -57988,7 +57994,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1708" spans="1:13">
+    <row r="1708" spans="1:13" hidden="1">
       <c r="A1708" s="2" t="s">
         <v>1641</v>
       </c>
@@ -58016,7 +58022,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1709" spans="1:13">
+    <row r="1709" spans="1:13" hidden="1">
       <c r="A1709" s="2" t="s">
         <v>1642</v>
       </c>
@@ -58044,7 +58050,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1710" spans="1:13">
+    <row r="1710" spans="1:13" hidden="1">
       <c r="A1710" s="2" t="s">
         <v>1643</v>
       </c>
@@ -58097,7 +58103,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1712" spans="1:13">
+    <row r="1712" spans="1:13" hidden="1">
       <c r="A1712" s="2" t="s">
         <v>1645</v>
       </c>
@@ -58123,7 +58129,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1713" spans="1:13">
+    <row r="1713" spans="1:13" hidden="1">
       <c r="A1713" s="2" t="s">
         <v>1646</v>
       </c>
@@ -58176,7 +58182,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1715" spans="1:13">
+    <row r="1715" spans="1:13" hidden="1">
       <c r="A1715" s="2" t="s">
         <v>1648</v>
       </c>
@@ -58237,7 +58243,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1717" spans="1:13">
+    <row r="1717" spans="1:13" hidden="1">
       <c r="A1717" s="2" t="s">
         <v>1650</v>
       </c>
@@ -58263,7 +58269,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1718" spans="1:13">
+    <row r="1718" spans="1:13" hidden="1">
       <c r="A1718" s="2" t="s">
         <v>1651</v>
       </c>
@@ -58317,7 +58323,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1720" spans="1:13">
+    <row r="1720" spans="1:13" hidden="1">
       <c r="A1720" s="2" t="s">
         <v>1653</v>
       </c>
@@ -58371,7 +58377,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1722" spans="1:13">
+    <row r="1722" spans="1:13" hidden="1">
       <c r="A1722" s="2" t="s">
         <v>1655</v>
       </c>
@@ -58399,7 +58405,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1723" spans="1:13">
+    <row r="1723" spans="1:13" hidden="1">
       <c r="A1723" s="2" t="s">
         <v>1656</v>
       </c>
@@ -58430,7 +58436,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1724" spans="1:13">
+    <row r="1724" spans="1:13" hidden="1">
       <c r="A1724" s="2" t="s">
         <v>1657</v>
       </c>
@@ -58456,7 +58462,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1725" spans="1:13">
+    <row r="1725" spans="1:13" hidden="1">
       <c r="A1725" s="2" t="s">
         <v>1658</v>
       </c>
@@ -58482,7 +58488,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1726" spans="1:13">
+    <row r="1726" spans="1:13" hidden="1">
       <c r="A1726" s="2" t="s">
         <v>1659</v>
       </c>
@@ -58508,7 +58514,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1727" spans="1:13">
+    <row r="1727" spans="1:13" hidden="1">
       <c r="A1727" s="2" t="s">
         <v>1660</v>
       </c>
@@ -58534,7 +58540,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1728" spans="1:13">
+    <row r="1728" spans="1:13" hidden="1">
       <c r="A1728" s="2" t="s">
         <v>1661</v>
       </c>
@@ -58586,7 +58592,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1730" spans="1:12">
+    <row r="1730" spans="1:12" hidden="1">
       <c r="A1730" s="2" t="s">
         <v>1663</v>
       </c>
@@ -58665,7 +58671,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1733" spans="1:12">
+    <row r="1733" spans="1:12" hidden="1">
       <c r="A1733" s="2" t="s">
         <v>1666</v>
       </c>
@@ -58691,7 +58697,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1734" spans="1:12">
+    <row r="1734" spans="1:12" hidden="1">
       <c r="A1734" s="2" t="s">
         <v>1667</v>
       </c>
@@ -58717,7 +58723,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1735" spans="1:12">
+    <row r="1735" spans="1:12" hidden="1">
       <c r="A1735" s="2" t="s">
         <v>1668</v>
       </c>
@@ -58743,7 +58749,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1736" spans="1:12">
+    <row r="1736" spans="1:12" hidden="1">
       <c r="A1736" s="2" t="s">
         <v>1669</v>
       </c>
@@ -58769,7 +58775,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1737" spans="1:12">
+    <row r="1737" spans="1:12" hidden="1">
       <c r="A1737" s="2" t="s">
         <v>1670</v>
       </c>
@@ -58852,7 +58858,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1740" spans="1:12">
+    <row r="1740" spans="1:12" hidden="1">
       <c r="A1740" s="2" t="s">
         <v>1673</v>
       </c>
@@ -59193,7 +59199,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1753" spans="1:13">
+    <row r="1753" spans="1:13" hidden="1">
       <c r="A1753" s="2" t="s">
         <v>1685</v>
       </c>
@@ -59221,7 +59227,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1754" spans="1:13">
+    <row r="1754" spans="1:13" hidden="1">
       <c r="A1754" s="2" t="s">
         <v>1686</v>
       </c>
@@ -59274,7 +59280,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1756" spans="1:13">
+    <row r="1756" spans="1:13" hidden="1">
       <c r="A1756" s="2" t="s">
         <v>1688</v>
       </c>
@@ -59325,7 +59331,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1758" spans="1:13">
+    <row r="1758" spans="1:13" hidden="1">
       <c r="A1758" s="2" t="s">
         <v>1690</v>
       </c>
@@ -59484,7 +59490,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1764" spans="1:13">
+    <row r="1764" spans="1:13" hidden="1">
       <c r="A1764" s="2" t="s">
         <v>1696</v>
       </c>
@@ -59510,7 +59516,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1765" spans="1:13">
+    <row r="1765" spans="1:13" hidden="1">
       <c r="A1765" s="2" t="s">
         <v>1697</v>
       </c>
@@ -59560,7 +59566,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1767" spans="1:13">
+    <row r="1767" spans="1:13" hidden="1">
       <c r="A1767" s="2" t="s">
         <v>1699</v>
       </c>
@@ -59734,7 +59740,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1774" spans="1:13">
+    <row r="1774" spans="1:13" hidden="1">
       <c r="A1774" s="2" t="s">
         <v>1706</v>
       </c>
@@ -60441,7 +60447,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1802" spans="1:13">
+    <row r="1802" spans="1:13" hidden="1">
       <c r="A1802" s="2" t="s">
         <v>1733</v>
       </c>
@@ -60602,7 +60608,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1808" spans="1:13">
+    <row r="1808" spans="1:13" hidden="1">
       <c r="A1808" s="2" t="s">
         <v>1739</v>
       </c>
@@ -61046,7 +61052,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1825" spans="1:13">
+    <row r="1825" spans="1:13" hidden="1">
       <c r="A1825" s="2" t="s">
         <v>1756</v>
       </c>
@@ -61148,7 +61154,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1829" spans="1:13">
+    <row r="1829" spans="1:13" hidden="1">
       <c r="A1829" s="2" t="s">
         <v>1760</v>
       </c>
@@ -61222,7 +61228,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1832" spans="1:13">
+    <row r="1832" spans="1:13" hidden="1">
       <c r="A1832" s="2" t="s">
         <v>1763</v>
       </c>
@@ -61354,7 +61360,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1837" spans="1:13">
+    <row r="1837" spans="1:13" hidden="1">
       <c r="A1837" s="2" t="s">
         <v>1768</v>
       </c>
@@ -61458,7 +61464,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1841" spans="1:13">
+    <row r="1841" spans="1:13" hidden="1">
       <c r="A1841" s="2" t="s">
         <v>1772</v>
       </c>
@@ -61694,7 +61700,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1850" spans="1:13">
+    <row r="1850" spans="1:13" hidden="1">
       <c r="A1850" s="2" t="s">
         <v>1781</v>
       </c>
@@ -62221,7 +62227,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1871" spans="1:13">
+    <row r="1871" spans="1:13" hidden="1">
       <c r="A1871" s="2" t="s">
         <v>1802</v>
       </c>
@@ -62581,7 +62587,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1885" spans="1:13">
+    <row r="1885" spans="1:13" hidden="1">
       <c r="A1885" s="2" t="s">
         <v>1815</v>
       </c>
@@ -62686,7 +62692,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1889" spans="1:13">
+    <row r="1889" spans="1:13" hidden="1">
       <c r="A1889" s="2" t="s">
         <v>1819</v>
       </c>
@@ -63040,7 +63046,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1902" spans="1:13">
+    <row r="1902" spans="1:13" hidden="1">
       <c r="A1902" s="2" t="s">
         <v>1831</v>
       </c>
@@ -63634,7 +63640,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1925" spans="1:13">
+    <row r="1925" spans="1:13" hidden="1">
       <c r="A1925" s="2" t="s">
         <v>1854</v>
       </c>
@@ -64116,7 +64122,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1944" spans="1:13">
+    <row r="1944" spans="1:13" hidden="1">
       <c r="A1944" s="2" t="s">
         <v>1873</v>
       </c>
@@ -64531,7 +64537,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1960" spans="1:13">
+    <row r="1960" spans="1:13" hidden="1">
       <c r="A1960" s="2" t="s">
         <v>1887</v>
       </c>
@@ -64728,7 +64734,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1968" spans="1:13">
+    <row r="1968" spans="1:13" hidden="1">
       <c r="A1968" s="2" t="s">
         <v>1895</v>
       </c>
@@ -64754,7 +64760,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1969" spans="1:13">
+    <row r="1969" spans="1:13" hidden="1">
       <c r="A1969" s="2" t="s">
         <v>1896</v>
       </c>
@@ -64833,7 +64839,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1972" spans="1:13">
+    <row r="1972" spans="1:13" hidden="1">
       <c r="A1972" s="2" t="s">
         <v>1899</v>
       </c>
@@ -64909,7 +64915,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1975" spans="1:13">
+    <row r="1975" spans="1:13" hidden="1">
       <c r="A1975" s="2" t="s">
         <v>1902</v>
       </c>
@@ -65082,7 +65088,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1982" spans="1:13">
+    <row r="1982" spans="1:13" hidden="1">
       <c r="A1982" s="2" t="s">
         <v>1909</v>
       </c>
@@ -65361,7 +65367,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1993" spans="1:13">
+    <row r="1993" spans="1:13" hidden="1">
       <c r="A1993" s="2" t="s">
         <v>1920</v>
       </c>
@@ -65436,7 +65442,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="1996" spans="1:13">
+    <row r="1996" spans="1:13" hidden="1">
       <c r="A1996" s="2" t="s">
         <v>1923</v>
       </c>
@@ -65728,7 +65734,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2007" spans="1:13">
+    <row r="2007" spans="1:13" hidden="1">
       <c r="A2007" s="2" t="s">
         <v>1934</v>
       </c>
@@ -65779,7 +65785,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2009" spans="1:13">
+    <row r="2009" spans="1:13" hidden="1">
       <c r="A2009" s="2" t="s">
         <v>1936</v>
       </c>
@@ -65856,7 +65862,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2012" spans="1:13">
+    <row r="2012" spans="1:13" hidden="1">
       <c r="A2012" s="2" t="s">
         <v>1939</v>
       </c>
@@ -66051,7 +66057,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2020" spans="1:13">
+    <row r="2020" spans="1:13" hidden="1">
       <c r="A2020" s="2" t="s">
         <v>1947</v>
       </c>
@@ -66161,7 +66167,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2024" spans="1:13">
+    <row r="2024" spans="1:13" hidden="1">
       <c r="A2024" s="2" t="s">
         <v>1951</v>
       </c>
@@ -66388,7 +66394,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2033" spans="1:13">
+    <row r="2033" spans="1:13" hidden="1">
       <c r="A2033" s="2" t="s">
         <v>1960</v>
       </c>
@@ -66414,7 +66420,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2034" spans="1:13">
+    <row r="2034" spans="1:13" hidden="1">
       <c r="A2034" s="2" t="s">
         <v>1961</v>
       </c>
@@ -66461,7 +66467,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2036" spans="1:13">
+    <row r="2036" spans="1:13" hidden="1">
       <c r="A2036" s="2" t="s">
         <v>1963</v>
       </c>
@@ -66487,7 +66493,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2037" spans="1:13">
+    <row r="2037" spans="1:13" hidden="1">
       <c r="A2037" s="2" t="s">
         <v>1964</v>
       </c>
@@ -66839,7 +66845,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2051" spans="1:13">
+    <row r="2051" spans="1:13" hidden="1">
       <c r="A2051" s="2" t="s">
         <v>1978</v>
       </c>
@@ -66897,7 +66903,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2053" spans="1:13">
+    <row r="2053" spans="1:13" hidden="1">
       <c r="A2053" s="2" t="s">
         <v>1980</v>
       </c>
@@ -66925,7 +66931,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2054" spans="1:13">
+    <row r="2054" spans="1:13" hidden="1">
       <c r="A2054" s="2" t="s">
         <v>1981</v>
       </c>
@@ -67049,7 +67055,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2059" spans="1:13">
+    <row r="2059" spans="1:13" hidden="1">
       <c r="A2059" s="2" t="s">
         <v>1985</v>
       </c>
@@ -67123,7 +67129,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2062" spans="1:13">
+    <row r="2062" spans="1:13" hidden="1">
       <c r="A2062" s="2" t="s">
         <v>1988</v>
       </c>
@@ -67383,7 +67389,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2072" spans="1:13">
+    <row r="2072" spans="1:13" hidden="1">
       <c r="A2072" s="2" t="s">
         <v>1998</v>
       </c>
@@ -67637,7 +67643,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2082" spans="1:12">
+    <row r="2082" spans="1:12" hidden="1">
       <c r="A2082" s="2" t="s">
         <v>2008</v>
       </c>
@@ -67663,7 +67669,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2083" spans="1:12">
+    <row r="2083" spans="1:12" hidden="1">
       <c r="A2083" s="2" t="s">
         <v>2009</v>
       </c>
@@ -67766,7 +67772,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2087" spans="1:12">
+    <row r="2087" spans="1:12" hidden="1">
       <c r="A2087" s="2" t="s">
         <v>2013</v>
       </c>
@@ -67839,7 +67845,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2090" spans="1:12">
+    <row r="2090" spans="1:12" hidden="1">
       <c r="A2090" s="2" t="s">
         <v>2016</v>
       </c>
@@ -67897,7 +67903,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2092" spans="1:12">
+    <row r="2092" spans="1:12" hidden="1">
       <c r="A2092" s="2" t="s">
         <v>2018</v>
       </c>
@@ -67955,7 +67961,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2094" spans="1:12">
+    <row r="2094" spans="1:12" hidden="1">
       <c r="A2094" s="2" t="s">
         <v>2020</v>
       </c>
@@ -68034,7 +68040,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2097" spans="1:13">
+    <row r="2097" spans="1:13" hidden="1">
       <c r="A2097" s="2" t="s">
         <v>2023</v>
       </c>
@@ -68114,7 +68120,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2100" spans="1:13">
+    <row r="2100" spans="1:13" hidden="1">
       <c r="A2100" s="2" t="s">
         <v>2026</v>
       </c>
@@ -68165,7 +68171,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2102" spans="1:13">
+    <row r="2102" spans="1:13" hidden="1">
       <c r="A2102" s="2" t="s">
         <v>2028</v>
       </c>
@@ -68192,7 +68198,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2103" spans="1:13">
+    <row r="2103" spans="1:13" hidden="1">
       <c r="A2103" s="2" t="s">
         <v>2029</v>
       </c>
@@ -68251,7 +68257,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2105" spans="1:13">
+    <row r="2105" spans="1:13" hidden="1">
       <c r="A2105" s="2" t="s">
         <v>2031</v>
       </c>
@@ -69125,7 +69131,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2137" spans="1:13">
+    <row r="2137" spans="1:13" hidden="1">
       <c r="A2137" s="2" t="s">
         <v>2061</v>
       </c>
@@ -69184,7 +69190,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2139" spans="1:13">
+    <row r="2139" spans="1:13" hidden="1">
       <c r="A2139" s="2" t="s">
         <v>2062</v>
       </c>
@@ -69255,7 +69261,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2142" spans="1:13">
+    <row r="2142" spans="1:13" hidden="1">
       <c r="A2142" s="2" t="s">
         <v>2065</v>
       </c>
@@ -69304,7 +69310,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2144" spans="1:13">
+    <row r="2144" spans="1:13" hidden="1">
       <c r="A2144" s="2" t="s">
         <v>2067</v>
       </c>
@@ -69754,7 +69760,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2162" spans="1:13">
+    <row r="2162" spans="1:13" hidden="1">
       <c r="A2162" s="2" t="s">
         <v>2083</v>
       </c>
@@ -69805,7 +69811,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2164" spans="1:13">
+    <row r="2164" spans="1:13" hidden="1">
       <c r="A2164" s="2" t="s">
         <v>2085</v>
       </c>
@@ -71784,7 +71790,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2238" spans="1:13">
+    <row r="2238" spans="1:13" hidden="1">
       <c r="A2238" s="2" t="s">
         <v>2155</v>
       </c>
@@ -71941,7 +71947,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2244" spans="1:13">
+    <row r="2244" spans="1:13" hidden="1">
       <c r="A2244" s="2" t="s">
         <v>2161</v>
       </c>
@@ -72020,7 +72026,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2247" spans="1:13">
+    <row r="2247" spans="1:13" hidden="1">
       <c r="A2247" s="2" t="s">
         <v>2164</v>
       </c>
@@ -72393,7 +72399,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2262" spans="1:13">
+    <row r="2262" spans="1:13" hidden="1">
       <c r="A2262" s="2" t="s">
         <v>2178</v>
       </c>
@@ -72421,7 +72427,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2263" spans="1:13">
+    <row r="2263" spans="1:13" hidden="1">
       <c r="A2263" s="2" t="s">
         <v>2179</v>
       </c>
@@ -72804,7 +72810,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2277" spans="1:13">
+    <row r="2277" spans="1:13" hidden="1">
       <c r="A2277" s="2" t="s">
         <v>2193</v>
       </c>
@@ -73074,7 +73080,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2287" spans="1:13">
+    <row r="2287" spans="1:13" hidden="1">
       <c r="A2287" s="2" t="s">
         <v>2202</v>
       </c>
@@ -73225,7 +73231,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2293" spans="1:13">
+    <row r="2293" spans="1:13" hidden="1">
       <c r="A2293" s="2" t="s">
         <v>2208</v>
       </c>
@@ -73251,7 +73257,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2294" spans="1:13">
+    <row r="2294" spans="1:13" hidden="1">
       <c r="A2294" s="2" t="s">
         <v>2209</v>
       </c>
@@ -73277,7 +73283,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2295" spans="1:13">
+    <row r="2295" spans="1:13" hidden="1">
       <c r="A2295" s="2" t="s">
         <v>2210</v>
       </c>
@@ -73359,7 +73365,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2298" spans="1:13">
+    <row r="2298" spans="1:13" hidden="1">
       <c r="A2298" s="2" t="s">
         <v>2213</v>
       </c>
@@ -73385,7 +73391,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2299" spans="1:13">
+    <row r="2299" spans="1:13" hidden="1">
       <c r="A2299" s="2" t="s">
         <v>2214</v>
       </c>
@@ -73670,7 +73676,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2310" spans="1:13">
+    <row r="2310" spans="1:13" hidden="1">
       <c r="A2310" s="2" t="s">
         <v>2224</v>
       </c>
@@ -73694,7 +73700,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2311" spans="1:13">
+    <row r="2311" spans="1:13" hidden="1">
       <c r="A2311" s="2" t="s">
         <v>2225</v>
       </c>
@@ -73890,7 +73896,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2319" spans="1:13">
+    <row r="2319" spans="1:13" hidden="1">
       <c r="A2319" s="2" t="s">
         <v>2233</v>
       </c>
@@ -74015,7 +74021,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2324" spans="1:13">
+    <row r="2324" spans="1:13" hidden="1">
       <c r="A2324" s="2" t="s">
         <v>2238</v>
       </c>
@@ -74066,7 +74072,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2326" spans="1:13">
+    <row r="2326" spans="1:13" hidden="1">
       <c r="A2326" s="2" t="s">
         <v>2240</v>
       </c>
@@ -74299,7 +74305,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2335" spans="1:13">
+    <row r="2335" spans="1:13" hidden="1">
       <c r="A2335" s="2" t="s">
         <v>2249</v>
       </c>
@@ -74371,7 +74377,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2338" spans="1:13">
+    <row r="2338" spans="1:13" hidden="1">
       <c r="A2338" s="2" t="s">
         <v>2252</v>
       </c>
@@ -74422,7 +74428,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2340" spans="1:13">
+    <row r="2340" spans="1:13" hidden="1">
       <c r="A2340" s="2" t="s">
         <v>2254</v>
       </c>
@@ -74501,7 +74507,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2343" spans="1:13">
+    <row r="2343" spans="1:13" hidden="1">
       <c r="A2343" s="2" t="s">
         <v>2257</v>
       </c>
@@ -74673,7 +74679,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2350" spans="1:13">
+    <row r="2350" spans="1:13" hidden="1">
       <c r="A2350" s="2" t="s">
         <v>2264</v>
       </c>
@@ -74748,7 +74754,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2353" spans="1:13">
+    <row r="2353" spans="1:13" hidden="1">
       <c r="A2353" s="2" t="s">
         <v>2267</v>
       </c>
@@ -74793,7 +74799,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2355" spans="1:13">
+    <row r="2355" spans="1:13" hidden="1">
       <c r="A2355" s="2" t="s">
         <v>2269</v>
       </c>
@@ -75231,7 +75237,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2372" spans="1:13">
+    <row r="2372" spans="1:13" hidden="1">
       <c r="A2372" s="2" t="s">
         <v>2286</v>
       </c>
@@ -75332,7 +75338,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2376" spans="1:13">
+    <row r="2376" spans="1:13" hidden="1">
       <c r="A2376" s="2" t="s">
         <v>2290</v>
       </c>
@@ -75536,7 +75542,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2384" spans="1:13">
+    <row r="2384" spans="1:13" hidden="1">
       <c r="A2384" s="2" t="s">
         <v>2298</v>
       </c>
@@ -75871,7 +75877,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2397" spans="1:13">
+    <row r="2397" spans="1:13" hidden="1">
       <c r="A2397" s="2" t="s">
         <v>2311</v>
       </c>
@@ -75973,7 +75979,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2401" spans="1:13">
+    <row r="2401" spans="1:13" hidden="1">
       <c r="A2401" s="2" t="s">
         <v>2315</v>
       </c>
@@ -76146,7 +76152,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2408" spans="1:13">
+    <row r="2408" spans="1:13" hidden="1">
       <c r="A2408" s="2" t="s">
         <v>2322</v>
       </c>
@@ -76202,7 +76208,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2410" spans="1:13">
+    <row r="2410" spans="1:13" hidden="1">
       <c r="A2410" s="2" t="s">
         <v>2324</v>
       </c>
@@ -76248,7 +76254,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2412" spans="1:13">
+    <row r="2412" spans="1:13" hidden="1">
       <c r="A2412" s="2" t="s">
         <v>2326</v>
       </c>
@@ -76917,7 +76923,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2437" spans="1:13">
+    <row r="2437" spans="1:13" hidden="1">
       <c r="A2437" s="2" t="s">
         <v>2349</v>
       </c>
@@ -77372,7 +77378,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2454" spans="1:13">
+    <row r="2454" spans="1:13" hidden="1">
       <c r="A2454" s="2" t="s">
         <v>2366</v>
       </c>
@@ -77398,7 +77404,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2455" spans="1:13">
+    <row r="2455" spans="1:13" hidden="1">
       <c r="A2455" s="2" t="s">
         <v>2367</v>
       </c>
@@ -77577,7 +77583,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2462" spans="1:13">
+    <row r="2462" spans="1:13" hidden="1">
       <c r="A2462" s="2" t="s">
         <v>2374</v>
       </c>
@@ -77733,7 +77739,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2468" spans="1:13">
+    <row r="2468" spans="1:13" hidden="1">
       <c r="A2468" s="2" t="s">
         <v>2380</v>
       </c>
@@ -77834,7 +77840,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2472" spans="1:13">
+    <row r="2472" spans="1:13" hidden="1">
       <c r="A2472" s="2" t="s">
         <v>2384</v>
       </c>
@@ -77860,7 +77866,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2473" spans="1:13">
+    <row r="2473" spans="1:13" hidden="1">
       <c r="A2473" s="2" t="s">
         <v>2385</v>
       </c>
@@ -77882,7 +77888,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2474" spans="1:13">
+    <row r="2474" spans="1:13" hidden="1">
       <c r="A2474" s="2" t="s">
         <v>2386</v>
       </c>
@@ -77908,7 +77914,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2475" spans="1:13">
+    <row r="2475" spans="1:13" hidden="1">
       <c r="A2475" s="2" t="s">
         <v>2387</v>
       </c>
@@ -77934,7 +77940,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2476" spans="1:13">
+    <row r="2476" spans="1:13" hidden="1">
       <c r="A2476" s="2" t="s">
         <v>2388</v>
       </c>
@@ -77960,7 +77966,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2477" spans="1:13">
+    <row r="2477" spans="1:13" hidden="1">
       <c r="A2477" s="2" t="s">
         <v>2389</v>
       </c>
@@ -78139,7 +78145,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2484" spans="1:13">
+    <row r="2484" spans="1:13" hidden="1">
       <c r="A2484" s="2" t="s">
         <v>2396</v>
       </c>
@@ -78247,7 +78253,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2488" spans="1:13">
+    <row r="2488" spans="1:13" hidden="1">
       <c r="A2488" s="2" t="s">
         <v>2400</v>
       </c>
@@ -78456,7 +78462,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2496" spans="1:13">
+    <row r="2496" spans="1:13" hidden="1">
       <c r="A2496" s="2" t="s">
         <v>2407</v>
       </c>
@@ -78484,7 +78490,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2497" spans="1:13">
+    <row r="2497" spans="1:13" hidden="1">
       <c r="A2497" s="2" t="s">
         <v>2408</v>
       </c>
@@ -78563,7 +78569,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2500" spans="1:13">
+    <row r="2500" spans="1:13" hidden="1">
       <c r="A2500" s="2" t="s">
         <v>2411</v>
       </c>
@@ -78897,7 +78903,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2513" spans="1:13">
+    <row r="2513" spans="1:13" hidden="1">
       <c r="A2513" s="2" t="s">
         <v>2421</v>
       </c>
@@ -79316,7 +79322,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2530" spans="1:13">
+    <row r="2530" spans="1:13" hidden="1">
       <c r="A2530" s="2" t="s">
         <v>2437</v>
       </c>
@@ -79367,7 +79373,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2532" spans="1:13">
+    <row r="2532" spans="1:13" hidden="1">
       <c r="A2532" s="2" t="s">
         <v>2439</v>
       </c>
@@ -79494,7 +79500,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2537" spans="1:13">
+    <row r="2537" spans="1:13" hidden="1">
       <c r="A2537" s="2" t="s">
         <v>2444</v>
       </c>
@@ -79520,7 +79526,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2538" spans="1:13">
+    <row r="2538" spans="1:13" hidden="1">
       <c r="A2538" s="2" t="s">
         <v>2445</v>
       </c>
@@ -79698,7 +79704,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2545" spans="1:13">
+    <row r="2545" spans="1:13" hidden="1">
       <c r="A2545" s="2" t="s">
         <v>2452</v>
       </c>
@@ -79836,7 +79842,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2550" spans="1:13">
+    <row r="2550" spans="1:13" hidden="1">
       <c r="A2550" s="2" t="s">
         <v>2457</v>
       </c>
@@ -79937,7 +79943,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2554" spans="1:13">
+    <row r="2554" spans="1:13" hidden="1">
       <c r="A2554" s="2" t="s">
         <v>2461</v>
       </c>
@@ -80016,7 +80022,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2557" spans="1:13">
+    <row r="2557" spans="1:13" hidden="1">
       <c r="A2557" s="2" t="s">
         <v>2464</v>
       </c>
@@ -80042,7 +80048,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2558" spans="1:13">
+    <row r="2558" spans="1:13" hidden="1">
       <c r="A2558" s="2" t="s">
         <v>2465</v>
       </c>
@@ -80642,7 +80648,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2582" spans="1:13">
+    <row r="2582" spans="1:13" hidden="1">
       <c r="A2582" s="2" t="s">
         <v>2487</v>
       </c>
@@ -80848,7 +80854,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2590" spans="1:13">
+    <row r="2590" spans="1:13" hidden="1">
       <c r="A2590" s="2" t="s">
         <v>2495</v>
       </c>
@@ -80932,7 +80938,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2593" spans="1:12">
+    <row r="2593" spans="1:12" hidden="1">
       <c r="A2593" s="2" t="s">
         <v>2498</v>
       </c>
@@ -80956,7 +80962,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2594" spans="1:12">
+    <row r="2594" spans="1:12" hidden="1">
       <c r="A2594" s="2" t="s">
         <v>2499</v>
       </c>
@@ -81003,7 +81009,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2596" spans="1:12">
+    <row r="2596" spans="1:12" hidden="1">
       <c r="A2596" s="2" t="s">
         <v>2501</v>
       </c>
@@ -81029,7 +81035,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2597" spans="1:12">
+    <row r="2597" spans="1:12" hidden="1">
       <c r="A2597" s="2" t="s">
         <v>2502</v>
       </c>
@@ -81057,7 +81063,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2598" spans="1:12">
+    <row r="2598" spans="1:12" hidden="1">
       <c r="A2598" s="2" t="s">
         <v>2503</v>
       </c>
@@ -81167,7 +81173,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2602" spans="1:12">
+    <row r="2602" spans="1:12" hidden="1">
       <c r="A2602" s="2" t="s">
         <v>2507</v>
       </c>
@@ -81195,7 +81201,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2603" spans="1:12">
+    <row r="2603" spans="1:12" hidden="1">
       <c r="A2603" s="2" t="s">
         <v>2508</v>
       </c>
@@ -81221,7 +81227,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2604" spans="1:12">
+    <row r="2604" spans="1:12" hidden="1">
       <c r="A2604" s="2" t="s">
         <v>2509</v>
       </c>
@@ -81249,7 +81255,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2605" spans="1:12">
+    <row r="2605" spans="1:12" hidden="1">
       <c r="A2605" s="2" t="s">
         <v>2510</v>
       </c>
@@ -81275,7 +81281,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2606" spans="1:12">
+    <row r="2606" spans="1:12" hidden="1">
       <c r="A2606" s="2" t="s">
         <v>2511</v>
       </c>
@@ -81303,7 +81309,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2607" spans="1:12">
+    <row r="2607" spans="1:12" hidden="1">
       <c r="A2607" s="2" t="s">
         <v>2512</v>
       </c>
@@ -81380,7 +81386,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2610" spans="1:13">
+    <row r="2610" spans="1:13" hidden="1">
       <c r="A2610" s="2" t="s">
         <v>2515</v>
       </c>
@@ -81406,7 +81412,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2611" spans="1:13">
+    <row r="2611" spans="1:13" hidden="1">
       <c r="A2611" s="2" t="s">
         <v>2516</v>
       </c>
@@ -81432,7 +81438,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2612" spans="1:13">
+    <row r="2612" spans="1:13" hidden="1">
       <c r="A2612" s="2" t="s">
         <v>2517</v>
       </c>
@@ -81458,7 +81464,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2613" spans="1:13">
+    <row r="2613" spans="1:13" hidden="1">
       <c r="A2613" s="2" t="s">
         <v>2518</v>
       </c>
@@ -81484,7 +81490,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2614" spans="1:13">
+    <row r="2614" spans="1:13" hidden="1">
       <c r="A2614" s="2" t="s">
         <v>2519</v>
       </c>
@@ -81510,7 +81516,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2615" spans="1:13">
+    <row r="2615" spans="1:13" hidden="1">
       <c r="A2615" s="2" t="s">
         <v>2520</v>
       </c>
@@ -81536,7 +81542,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2616" spans="1:13">
+    <row r="2616" spans="1:13" hidden="1">
       <c r="A2616" s="2" t="s">
         <v>2521</v>
       </c>
@@ -81562,7 +81568,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2617" spans="1:13">
+    <row r="2617" spans="1:13" hidden="1">
       <c r="A2617" s="2" t="s">
         <v>2522</v>
       </c>
@@ -81588,7 +81594,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2618" spans="1:13">
+    <row r="2618" spans="1:13" hidden="1">
       <c r="A2618" s="2" t="s">
         <v>2523</v>
       </c>
@@ -81614,7 +81620,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2619" spans="1:13">
+    <row r="2619" spans="1:13" hidden="1">
       <c r="A2619" s="2" t="s">
         <v>2524</v>
       </c>
@@ -81793,7 +81799,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2626" spans="1:13">
+    <row r="2626" spans="1:13" hidden="1">
       <c r="A2626" s="2" t="s">
         <v>2530</v>
       </c>
@@ -81944,7 +81950,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2632" spans="1:13">
+    <row r="2632" spans="1:13" hidden="1">
       <c r="A2632" s="2" t="s">
         <v>2536</v>
       </c>
@@ -82369,7 +82375,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2648" spans="1:13">
+    <row r="2648" spans="1:13" hidden="1">
       <c r="A2648" s="2" t="s">
         <v>2551</v>
       </c>
@@ -82395,7 +82401,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2649" spans="1:13">
+    <row r="2649" spans="1:13" hidden="1">
       <c r="A2649" s="2" t="s">
         <v>2552</v>
       </c>
@@ -82752,7 +82758,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2662" spans="1:13">
+    <row r="2662" spans="1:13" hidden="1">
       <c r="A2662" s="2" t="s">
         <v>2564</v>
       </c>
@@ -82806,7 +82812,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2664" spans="1:13">
+    <row r="2664" spans="1:13" hidden="1">
       <c r="A2664" s="2" t="s">
         <v>2566</v>
       </c>
@@ -82832,7 +82838,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2665" spans="1:13">
+    <row r="2665" spans="1:13" hidden="1">
       <c r="A2665" s="2" t="s">
         <v>2567</v>
       </c>
@@ -82858,7 +82864,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2666" spans="1:13">
+    <row r="2666" spans="1:13" hidden="1">
       <c r="A2666" s="2" t="s">
         <v>2568</v>
       </c>
@@ -82940,7 +82946,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2669" spans="1:13">
+    <row r="2669" spans="1:13" hidden="1">
       <c r="A2669" s="2" t="s">
         <v>2571</v>
       </c>
@@ -83048,7 +83054,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2673" spans="1:12">
+    <row r="2673" spans="1:12" hidden="1">
       <c r="A2673" s="2" t="s">
         <v>2575</v>
       </c>
@@ -83075,7 +83081,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2674" spans="1:12">
+    <row r="2674" spans="1:12" hidden="1">
       <c r="A2674" s="2" t="s">
         <v>2576</v>
       </c>
@@ -83102,7 +83108,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2675" spans="1:12">
+    <row r="2675" spans="1:12" hidden="1">
       <c r="A2675" s="2" t="s">
         <v>2577</v>
       </c>
@@ -83210,7 +83216,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2679" spans="1:12">
+    <row r="2679" spans="1:12" hidden="1">
       <c r="A2679" s="2" t="s">
         <v>2581</v>
       </c>
@@ -83264,7 +83270,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2681" spans="1:12">
+    <row r="2681" spans="1:12" hidden="1">
       <c r="A2681" s="2" t="s">
         <v>2583</v>
       </c>
@@ -83345,7 +83351,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2684" spans="1:12">
+    <row r="2684" spans="1:12" hidden="1">
       <c r="A2684" s="2" t="s">
         <v>2586</v>
       </c>
@@ -83565,7 +83571,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2692" spans="1:12">
+    <row r="2692" spans="1:12" hidden="1">
       <c r="A2692" s="2" t="s">
         <v>2594</v>
       </c>
@@ -83675,7 +83681,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2696" spans="1:12">
+    <row r="2696" spans="1:12" hidden="1">
       <c r="A2696" s="2" t="s">
         <v>2598</v>
       </c>
@@ -83783,7 +83789,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2700" spans="1:12">
+    <row r="2700" spans="1:12" hidden="1">
       <c r="A2700" s="2" t="s">
         <v>2602</v>
       </c>
@@ -83811,7 +83817,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2701" spans="1:12">
+    <row r="2701" spans="1:12" hidden="1">
       <c r="A2701" s="2" t="s">
         <v>2603</v>
       </c>
@@ -83839,7 +83845,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2702" spans="1:12">
+    <row r="2702" spans="1:12" hidden="1">
       <c r="A2702" s="2" t="s">
         <v>2604</v>
       </c>
@@ -83865,7 +83871,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2703" spans="1:12">
+    <row r="2703" spans="1:12" hidden="1">
       <c r="A2703" s="2" t="s">
         <v>2605</v>
       </c>
@@ -83974,7 +83980,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2707" spans="1:12">
+    <row r="2707" spans="1:12" hidden="1">
       <c r="A2707" s="2" t="s">
         <v>2609</v>
       </c>
@@ -84055,7 +84061,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2710" spans="1:12">
+    <row r="2710" spans="1:12" hidden="1">
       <c r="A2710" s="2" t="s">
         <v>2612</v>
       </c>
@@ -84082,7 +84088,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2711" spans="1:12">
+    <row r="2711" spans="1:12" hidden="1">
       <c r="A2711" s="2" t="s">
         <v>2613</v>
       </c>
@@ -84109,7 +84115,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2712" spans="1:12">
+    <row r="2712" spans="1:12" hidden="1">
       <c r="A2712" s="2" t="s">
         <v>2614</v>
       </c>
@@ -84217,7 +84223,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2716" spans="1:12">
+    <row r="2716" spans="1:12" hidden="1">
       <c r="A2716" s="2" t="s">
         <v>2618</v>
       </c>
@@ -84244,7 +84250,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2717" spans="1:12">
+    <row r="2717" spans="1:12" hidden="1">
       <c r="A2717" s="2" t="s">
         <v>2619</v>
       </c>
@@ -84356,7 +84362,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2721" spans="1:13">
+    <row r="2721" spans="1:13" hidden="1">
       <c r="A2721" s="2" t="s">
         <v>2623</v>
       </c>
@@ -84383,7 +84389,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2722" spans="1:13">
+    <row r="2722" spans="1:13" hidden="1">
       <c r="A2722" s="2" t="s">
         <v>2624</v>
       </c>
@@ -84603,7 +84609,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2730" spans="1:13">
+    <row r="2730" spans="1:13" hidden="1">
       <c r="A2730" s="2" t="s">
         <v>2631</v>
       </c>
@@ -85172,7 +85178,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2751" spans="1:13">
+    <row r="2751" spans="1:13" hidden="1">
       <c r="A2751" s="2" t="s">
         <v>2649</v>
       </c>
@@ -85718,7 +85724,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2772" spans="1:13">
+    <row r="2772" spans="1:13" hidden="1">
       <c r="A2772" s="2" t="s">
         <v>2670</v>
       </c>
@@ -85826,7 +85832,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2776" spans="1:13">
+    <row r="2776" spans="1:13" hidden="1">
       <c r="A2776" s="2" t="s">
         <v>2674</v>
       </c>
@@ -85982,7 +85988,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2782" spans="1:13">
+    <row r="2782" spans="1:13" hidden="1">
       <c r="A2782" s="2" t="s">
         <v>2680</v>
       </c>
@@ -86350,7 +86356,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2797" spans="1:13">
+    <row r="2797" spans="1:13" hidden="1">
       <c r="A2797" s="2" t="s">
         <v>2694</v>
       </c>
@@ -86376,7 +86382,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2798" spans="1:13">
+    <row r="2798" spans="1:13" hidden="1">
       <c r="A2798" s="2" t="s">
         <v>2695</v>
       </c>
@@ -86728,7 +86734,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2812" spans="1:13">
+    <row r="2812" spans="1:13" hidden="1">
       <c r="A2812" s="2" t="s">
         <v>2709</v>
       </c>
@@ -87258,7 +87264,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2831" spans="1:13">
+    <row r="2831" spans="1:13" hidden="1">
       <c r="A2831" s="2" t="s">
         <v>2728</v>
       </c>
@@ -87629,7 +87635,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2845" spans="1:13">
+    <row r="2845" spans="1:13" hidden="1">
       <c r="A2845" s="2" t="s">
         <v>2741</v>
       </c>
@@ -87869,7 +87875,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2854" spans="1:13">
+    <row r="2854" spans="1:13" hidden="1">
       <c r="A2854" s="2" t="s">
         <v>2750</v>
       </c>
@@ -88074,7 +88080,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2861" spans="1:13">
+    <row r="2861" spans="1:13" hidden="1">
       <c r="A2861" s="2" t="s">
         <v>2756</v>
       </c>
@@ -88151,7 +88157,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2864" spans="1:13">
+    <row r="2864" spans="1:13" hidden="1">
       <c r="A2864" s="2" t="s">
         <v>2759</v>
       </c>
@@ -88865,7 +88871,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2890" spans="1:13">
+    <row r="2890" spans="1:13" hidden="1">
       <c r="A2890" s="2" t="s">
         <v>2784</v>
       </c>
@@ -89288,7 +89294,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2906" spans="1:13">
+    <row r="2906" spans="1:13" hidden="1">
       <c r="A2906" s="2" t="s">
         <v>2800</v>
       </c>
@@ -89314,7 +89320,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2907" spans="1:13">
+    <row r="2907" spans="1:13" hidden="1">
       <c r="A2907" s="2" t="s">
         <v>2801</v>
       </c>
@@ -89340,7 +89346,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2908" spans="1:13">
+    <row r="2908" spans="1:13" hidden="1">
       <c r="A2908" s="2" t="s">
         <v>2802</v>
       </c>
@@ -89395,7 +89401,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2910" spans="1:13">
+    <row r="2910" spans="1:13" hidden="1">
       <c r="A2910" s="2" t="s">
         <v>2804</v>
       </c>
@@ -89449,7 +89455,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2912" spans="1:13">
+    <row r="2912" spans="1:13" hidden="1">
       <c r="A2912" s="2" t="s">
         <v>2806</v>
       </c>
@@ -89475,7 +89481,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2913" spans="1:13">
+    <row r="2913" spans="1:13" hidden="1">
       <c r="A2913" s="2" t="s">
         <v>2807</v>
       </c>
@@ -89557,7 +89563,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2916" spans="1:13">
+    <row r="2916" spans="1:13" hidden="1">
       <c r="A2916" s="2" t="s">
         <v>2810</v>
       </c>
@@ -89583,7 +89589,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2917" spans="1:13">
+    <row r="2917" spans="1:13" hidden="1">
       <c r="A2917" s="2" t="s">
         <v>2811</v>
       </c>
@@ -89873,7 +89879,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2928" spans="1:13">
+    <row r="2928" spans="1:13" hidden="1">
       <c r="A2928" s="2" t="s">
         <v>2821</v>
       </c>
@@ -90083,7 +90089,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2936" spans="1:13">
+    <row r="2936" spans="1:13" hidden="1">
       <c r="A2936" s="2" t="s">
         <v>2829</v>
       </c>
@@ -90288,7 +90294,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2944" spans="1:13">
+    <row r="2944" spans="1:13" hidden="1">
       <c r="A2944" s="2" t="s">
         <v>2837</v>
       </c>
@@ -90458,7 +90464,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2950" spans="1:13">
+    <row r="2950" spans="1:13" hidden="1">
       <c r="A2950" s="2" t="s">
         <v>2843</v>
       </c>
@@ -90537,7 +90543,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2953" spans="1:13">
+    <row r="2953" spans="1:13" hidden="1">
       <c r="A2953" s="2" t="s">
         <v>2846</v>
       </c>
@@ -90645,7 +90651,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2957" spans="1:13">
+    <row r="2957" spans="1:13" hidden="1">
       <c r="A2957" s="2" t="s">
         <v>2850</v>
       </c>
@@ -91131,7 +91137,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2975" spans="1:13">
+    <row r="2975" spans="1:13" hidden="1">
       <c r="A2975" s="2" t="s">
         <v>2868</v>
       </c>
@@ -91239,7 +91245,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2979" spans="1:13">
+    <row r="2979" spans="1:13" hidden="1">
       <c r="A2979" s="2" t="s">
         <v>2872</v>
       </c>
@@ -91458,7 +91464,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="2987" spans="1:13">
+    <row r="2987" spans="1:13" hidden="1">
       <c r="A2987" s="2" t="s">
         <v>2880</v>
       </c>
@@ -92202,7 +92208,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3016" spans="1:13">
+    <row r="3016" spans="1:13" hidden="1">
       <c r="A3016" s="2" t="s">
         <v>2907</v>
       </c>
@@ -92256,7 +92262,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3018" spans="1:13">
+    <row r="3018" spans="1:13" hidden="1">
       <c r="A3018" s="2" t="s">
         <v>2909</v>
       </c>
@@ -92311,13 +92317,15 @@
         <v>3981</v>
       </c>
       <c r="B3020" s="2" t="s">
-        <v>3981</v>
+        <v>4039</v>
       </c>
       <c r="C3020" s="2" t="b">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="E3020" s="3"/>
+      <c r="E3020" s="3" t="s">
+        <v>2910</v>
+      </c>
       <c r="F3020" s="2" t="s">
         <v>3800</v>
       </c>
@@ -92336,13 +92344,15 @@
         <v>3982</v>
       </c>
       <c r="B3021" s="2" t="s">
-        <v>3982</v>
+        <v>4038</v>
       </c>
       <c r="C3021" s="2" t="b">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="E3021" s="3"/>
+      <c r="E3021" s="3" t="s">
+        <v>2910</v>
+      </c>
       <c r="F3021" s="2" t="s">
         <v>3800</v>
       </c>
@@ -92761,7 +92771,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3037" spans="1:13">
+    <row r="3037" spans="1:13" hidden="1">
       <c r="A3037" s="2" t="s">
         <v>2924</v>
       </c>
@@ -93025,7 +93035,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3047" spans="1:13">
+    <row r="3047" spans="1:13" hidden="1">
       <c r="A3047" s="2" t="s">
         <v>2934</v>
       </c>
@@ -93077,7 +93087,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3049" spans="1:13">
+    <row r="3049" spans="1:13" hidden="1">
       <c r="A3049" s="2" t="s">
         <v>2936</v>
       </c>
@@ -93439,7 +93449,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3063" spans="1:13">
+    <row r="3063" spans="1:13" hidden="1">
       <c r="A3063" s="2" t="s">
         <v>2950</v>
       </c>
@@ -93624,7 +93634,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3070" spans="1:13">
+    <row r="3070" spans="1:13" hidden="1">
       <c r="A3070" s="2" t="s">
         <v>2956</v>
       </c>
@@ -93753,7 +93763,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3075" spans="1:13">
+    <row r="3075" spans="1:13" hidden="1">
       <c r="A3075" s="2" t="s">
         <v>2961</v>
       </c>
@@ -94378,7 +94388,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3098" spans="1:13">
+    <row r="3098" spans="1:13" hidden="1">
       <c r="A3098" s="2" t="s">
         <v>2984</v>
       </c>
@@ -94405,7 +94415,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="3099" spans="1:13">
+    <row r="3099" spans="1:13" hidden="1">
       <c r="A3099" s="2" t="s">
         <v>2985</v>
       </c>
@@ -94440,6 +94450,32 @@
       <c r="E3100" s="1"/>
       <c r="F3100" s="2"/>
       <c r="K3100" s="1"/>
+    </row>
+    <row r="3101" spans="1:13">
+      <c r="A3101" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B3101" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C3101" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3101" s="2" t="s">
+        <v>3800</v>
+      </c>
+      <c r="I3101" t="s">
+        <v>4024</v>
+      </c>
+      <c r="K3101" s="2" t="s">
+        <v>3006</v>
+      </c>
+      <c r="L3101" t="s">
+        <v>3006</v>
+      </c>
+      <c r="M3101" t="s">
+        <v>3006</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L3100" xr:uid="{ED6C27D9-E59B-471F-8509-6B95B79B9B99}">
@@ -94450,6 +94486,11 @@
     </filterColumn>
     <filterColumn colId="8">
       <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="no"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
